--- a/Assignment_4.xlsx
+++ b/Assignment_4.xlsx
@@ -8,15 +8,53 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenhartinger/Documents/GitHub/Assignment4_Steven_Hartinger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6203BF43-2400-5042-8C47-2A6BCB194176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41276960-9EC2-6A45-8F17-2B587E3E3922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1F30DBAA-D911-C640-BFD8-553FA4934FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$1:$A$23</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$23</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$2:$A$23</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$A$1:$B$23</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$A$2:$A$23</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$2:$A$23</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1:$B$23</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2:$A$23</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$23</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,6 +90,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.000000000000000000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -81,9 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +144,2031 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32290266841644794"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13840699954744307"/>
+          <c:y val="0.17168999708369787"/>
+          <c:w val="0.84682857883187768"/>
+          <c:h val="0.67011519393409158"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time to Collision (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Size in Bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0,000,000,000,000,000,000,000,000,000,000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7738037109374993E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.15053558349609E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.59942626953125E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0008811950683501E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6188621520996001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2796134948730398E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5440196990966797E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0486793518066395E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9480876922607405E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5293798446655197E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45770192146301197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0571880340576102E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4034938812255804E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.598150014877319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42187118530273399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53326106071472101</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="00,000,000,000,000,000,000,000">
+                  <c:v>6.5155720710749998</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="00,000,000,000,000,000,000,000">
+                  <c:v>122.310769081115</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="00,000,000,000,000,000,000,000">
+                  <c:v>26.2934248447418</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="00,000,000,000,000,000,000,000,000">
+                  <c:v>107.915767908096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>196.64152002334501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>121.511581897735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9543-CE4B-886A-478A1BBE127B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1761963008"/>
+        <c:axId val="1761964656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1761963008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761964656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1761964656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761963008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Inputs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Size in Bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1476127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27323833</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5752600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23948125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44290120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26602235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DA1-4745-9137-BD263914AB47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="224990160"/>
+        <c:axId val="224991808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="224990160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224991808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224991808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224990160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819059</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46015</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0F437C-F529-01CE-FA7D-F9710DD43040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235594</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>197494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666290</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106202</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265B8F7B-EDA7-90BD-BD08-850A662F9517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,16 +2468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27395E0-BAA3-A04B-B974-1CD8CE8038B4}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,22 +2496,22 @@
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>2.6297092437744099E-2</v>
+      <c r="B2" s="1">
+        <v>8.7738037109374993E-6</v>
       </c>
       <c r="C2">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>1.15143990516662</v>
+      <c r="B3" s="1">
+        <v>2.15053558349609E-4</v>
       </c>
       <c r="C3">
-        <v>1738</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -449,75 +2519,223 @@
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>47.035053014755199</v>
+        <v>6.59942626953125E-4</v>
       </c>
       <c r="C4">
-        <v>10897</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>6.3390760421752903</v>
+      <c r="B5" s="1">
+        <v>1.0008811950683501E-3</v>
       </c>
       <c r="C5">
-        <v>3804</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>923.256746053695</v>
+      <c r="B6" s="1">
+        <v>1.6188621520996001E-3</v>
       </c>
       <c r="C6">
-        <v>47593</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>18</v>
       </c>
+      <c r="B7" s="1">
+        <v>4.2796134948730398E-4</v>
+      </c>
+      <c r="C7">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
+      <c r="B8" s="1">
+        <v>4.5440196990966797E-3</v>
+      </c>
+      <c r="C8">
+        <v>771</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>22</v>
       </c>
+      <c r="B9" s="1">
+        <v>6.0486793518066395E-4</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
+      <c r="B10" s="1">
+        <v>8.9480876922607405E-3</v>
+      </c>
+      <c r="C10">
+        <v>1774</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>26</v>
       </c>
+      <c r="B11" s="1">
+        <v>5.5293798446655197E-2</v>
+      </c>
+      <c r="C11">
+        <v>11822</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>28</v>
       </c>
+      <c r="B12" s="1">
+        <v>0.45770192146301197</v>
+      </c>
+      <c r="C12">
+        <v>96919</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30</v>
       </c>
+      <c r="B13" s="1">
+        <v>9.0571880340576102E-2</v>
+      </c>
+      <c r="C13">
+        <v>19717</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32</v>
       </c>
+      <c r="B14" s="1">
+        <v>6.4034938812255804E-2</v>
+      </c>
+      <c r="C14">
+        <v>14109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.598150014877319</v>
+      </c>
+      <c r="C15">
+        <v>127351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.42187118530273399</v>
+      </c>
+      <c r="C16">
+        <v>93974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.53326106071472101</v>
+      </c>
+      <c r="C17">
+        <v>117522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6.5155720710749998</v>
+      </c>
+      <c r="C18">
+        <v>1476127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3">
+        <v>122.310769081115</v>
+      </c>
+      <c r="C19">
+        <v>27323833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3">
+        <v>26.2934248447418</v>
+      </c>
+      <c r="C20">
+        <v>5752600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2">
+        <v>107.915767908096</v>
+      </c>
+      <c r="C21">
+        <v>23948125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>196.64152002334501</v>
+      </c>
+      <c r="C22">
+        <v>44290120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1">
+        <v>121.511581897735</v>
+      </c>
+      <c r="C23">
+        <v>26602235</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>